--- a/Data_clean/MCAS/Estados_US/Edos_USA_2013/VERMONT_2013.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2013/VERMONT_2013.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>El Porvenir</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Mazapa De Madero</t>
@@ -468,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Siltepec</t>
@@ -481,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Total</t>
@@ -512,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Guerrero</t>
@@ -525,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Total</t>
@@ -556,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Total</t>
@@ -587,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Total</t>
@@ -618,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Total</t>
@@ -649,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Total</t>
@@ -680,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -693,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Total</t>
@@ -724,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Malinaltepec</t>
@@ -737,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Metlatonoc</t>
@@ -750,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Total</t>
@@ -781,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Total</t>
@@ -812,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>San Antonino Monte Verde</t>
@@ -825,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>San Francisco Logueche</t>
@@ -838,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Santo Domingo Tehuantepec</t>
@@ -851,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Villa De Chilapa De Diaz</t>
@@ -864,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Total</t>
@@ -895,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Hueytamalco</t>
@@ -908,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Jolalpan</t>
@@ -921,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Teziutlan</t>
@@ -934,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Total</t>
@@ -965,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Huimanguillo</t>
@@ -978,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1009,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Atzalan</t>
@@ -1022,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Coatzacoalcos</t>
@@ -1035,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Cosamaloapan De Carpio</t>
@@ -1048,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Isla</t>
@@ -1061,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Ixmatlahuacan</t>
@@ -1074,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Las Choapas</t>
@@ -1087,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Martinez De La Torre</t>
@@ -1100,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Playa Vicente</t>
@@ -1113,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>San Juan Evangelista</t>
@@ -1126,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Sayula De Aleman</t>
@@ -1139,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Tatatila</t>
@@ -1152,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Tecolutla</t>
@@ -1165,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Tlacotalpan</t>
@@ -1178,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Tlapacoyan</t>
@@ -1191,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Total</t>
